--- a/nikeShoesShopManager/src/main/webapp/WEB-INF/excel/sales.xlsx
+++ b/nikeShoesShopManager/src/main/webapp/WEB-INF/excel/sales.xlsx
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>배송날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${item.orderPrname}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,7 +63,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${item.orderShipdate}</t>
+    <t>${item.orderDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +88,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -114,7 +123,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -128,6 +137,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -434,7 +449,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -449,23 +464,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
+      <c r="F1" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -478,19 +493,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
